--- a/策划案&需求.xlsx
+++ b/策划案&需求.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\TheMirrorSeries_Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11670"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11670" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="版本记录" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="293">
   <si>
     <t>项目组别</t>
   </si>
@@ -719,10 +719,6 @@
   </si>
   <si>
     <t>程序协作完成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1326,6 +1322,34 @@
       </rPr>
       <t>+c)</t>
     </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时不需要</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>有4个人匹配后直接进游戏</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时不需要加载界面</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时不需要</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -4911,7 +4935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
@@ -4937,7 +4961,7 @@
       </c>
       <c r="B2" s="95"/>
       <c r="C2" s="95" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D2" s="95"/>
       <c r="E2" s="95"/>
@@ -5075,7 +5099,7 @@
     </row>
     <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.15">
       <c r="A11" s="87" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B11" s="88"/>
       <c r="C11" s="88"/>
@@ -5089,7 +5113,7 @@
     </row>
     <row r="12" spans="1:10" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A12" s="90" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B12" s="90"/>
       <c r="C12" s="90"/>
@@ -5265,7 +5289,7 @@
       </c>
       <c r="D25" s="70"/>
       <c r="E25" s="69" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F25" s="71"/>
       <c r="G25" s="70"/>
@@ -5355,7 +5379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V275"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:T1"/>
     </sheetView>
   </sheetViews>
@@ -5453,7 +5477,7 @@
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="16"/>
@@ -5537,7 +5561,7 @@
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
@@ -5617,11 +5641,11 @@
     <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B13" s="17"/>
       <c r="C13" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
@@ -5726,7 +5750,7 @@
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.15">
       <c r="D22" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.15">
@@ -5736,7 +5760,7 @@
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.15">
       <c r="D25" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E25" s="46"/>
     </row>
@@ -5800,7 +5824,7 @@
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E41" s="46" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.15">
@@ -5825,11 +5849,11 @@
     <row r="48" spans="4:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="49" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B49" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
@@ -5929,7 +5953,7 @@
     <row r="82" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D82" s="23"/>
       <c r="E82" s="46" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I82" s="46"/>
     </row>
@@ -6049,7 +6073,7 @@
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
       <c r="M98" s="49" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="99" spans="4:13" x14ac:dyDescent="0.15">
@@ -6188,7 +6212,7 @@
     </row>
     <row r="148" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E148" s="46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="151" spans="4:5" x14ac:dyDescent="0.15">
@@ -6217,12 +6241,12 @@
     </row>
     <row r="171" spans="4:11" x14ac:dyDescent="0.15">
       <c r="E171" s="46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="172" spans="4:11" x14ac:dyDescent="0.15">
       <c r="E172" s="46" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="173" spans="4:11" x14ac:dyDescent="0.15">
@@ -6237,7 +6261,7 @@
     </row>
     <row r="176" spans="4:11" x14ac:dyDescent="0.15">
       <c r="E176" s="46" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.15">
@@ -6253,13 +6277,13 @@
     <row r="180" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A180" s="46"/>
       <c r="E180" s="46" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" ht="19.5" x14ac:dyDescent="0.15">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A181" s="46"/>
       <c r="E181" s="46" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.15">
@@ -6332,16 +6356,16 @@
     <row r="201" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F201" s="46"/>
     </row>
-    <row r="202" spans="1:11" ht="19.5" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A202" s="46"/>
       <c r="E202" s="46" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F202" s="46"/>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.15">
       <c r="E204" s="46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.15">
@@ -6438,7 +6462,7 @@
     </row>
     <row r="230" spans="4:9" x14ac:dyDescent="0.15">
       <c r="E230" s="46" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="232" spans="4:9" x14ac:dyDescent="0.15">
@@ -6499,17 +6523,17 @@
     <row r="263" spans="2:19" x14ac:dyDescent="0.15">
       <c r="D263" s="23"/>
       <c r="E263" s="46" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="266" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="267" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B267" s="22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C267" s="9"/>
       <c r="D267" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E267" s="9"/>
       <c r="F267" s="9"/>
@@ -6551,22 +6575,22 @@
     </row>
     <row r="271" spans="2:19" x14ac:dyDescent="0.15">
       <c r="E271" s="46" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="273" spans="5:5" ht="19.5" x14ac:dyDescent="0.15">
       <c r="E273" s="46" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="274" spans="5:5" ht="19.5" x14ac:dyDescent="0.15">
       <c r="E274" s="46" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="275" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E275" s="46" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -6637,7 +6661,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -6894,9 +6920,11 @@
       <c r="G13" s="47"/>
       <c r="H13" s="38"/>
       <c r="I13" s="58" t="s">
-        <v>174</v>
-      </c>
-      <c r="J13" s="38"/>
+        <v>291</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>286</v>
+      </c>
       <c r="K13" s="1" t="s">
         <v>167</v>
       </c>
@@ -6956,7 +6984,7 @@
         <v>163</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L15" s="38">
         <v>2</v>
@@ -7114,7 +7142,7 @@
       </c>
       <c r="H21" s="38"/>
       <c r="I21" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J21" s="38"/>
       <c r="K21" s="38"/>
@@ -7166,7 +7194,7 @@
       <c r="G23" s="64"/>
       <c r="H23" s="64"/>
       <c r="I23" s="66" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J23" s="64"/>
       <c r="K23" s="64"/>
@@ -7257,7 +7285,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7297,7 +7327,7 @@
     </row>
     <row r="3" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B3" s="101" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C3" s="102"/>
       <c r="D3" s="40"/>
@@ -7309,7 +7339,7 @@
     </row>
     <row r="4" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B4" s="101" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C4" s="102"/>
       <c r="D4" s="40"/>
@@ -7368,7 +7398,7 @@
         <v>31</v>
       </c>
       <c r="K8" s="57" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L8" s="57" t="s">
         <v>104</v>
@@ -7403,10 +7433,10 @@
         <v>36</v>
       </c>
       <c r="K9" s="45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L9" s="45" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="33" x14ac:dyDescent="0.15">
@@ -7414,51 +7444,51 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D10" s="58" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F10" s="38"/>
       <c r="G10" s="58" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H10" s="38"/>
       <c r="I10" s="58" t="s">
         <v>173</v>
       </c>
       <c r="J10" s="58" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="38"/>
     </row>
-    <row r="11" spans="2:12" ht="33" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B11" s="38">
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D11" s="58" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>125</v>
       </c>
       <c r="F11" s="38"/>
       <c r="G11" s="58" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H11" s="38"/>
       <c r="I11" s="58" t="s">
-        <v>174</v>
+        <v>289</v>
       </c>
       <c r="J11" s="58" t="s">
-        <v>182</v>
+        <v>290</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="38"/>
@@ -7468,15 +7498,15 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D12" s="58" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E12" s="58"/>
       <c r="F12" s="38"/>
       <c r="G12" s="58" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="58" t="s">
@@ -7491,17 +7521,17 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>193</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="D13" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="F13" s="38"/>
       <c r="G13" s="58" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
@@ -7516,24 +7546,24 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D14" s="58" t="s">
         <v>211</v>
       </c>
-      <c r="D14" s="58" t="s">
+      <c r="E14" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="F14" s="38"/>
       <c r="G14" s="58" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J14" s="58" t="s">
         <v>214</v>
-      </c>
-      <c r="J14" s="58" t="s">
-        <v>215</v>
       </c>
       <c r="K14" s="38"/>
       <c r="L14" s="38"/>
@@ -7543,22 +7573,22 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D15" s="58" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="47"/>
       <c r="H15" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J15" s="58" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K15" s="38"/>
       <c r="L15" s="38"/>
@@ -7633,7 +7663,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7642,7 +7674,8 @@
     <col min="3" max="3" width="20.375" style="59" customWidth="1"/>
     <col min="4" max="4" width="24.25" style="59" customWidth="1"/>
     <col min="5" max="8" width="20.375" style="59" customWidth="1"/>
-    <col min="9" max="10" width="9" style="59"/>
+    <col min="9" max="9" width="9" style="59"/>
+    <col min="10" max="10" width="21.5" style="59" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.375" style="59" customWidth="1"/>
     <col min="12" max="16384" width="9" style="59"/>
   </cols>
@@ -7670,7 +7703,7 @@
     </row>
     <row r="3" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B3" s="101" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C3" s="102"/>
       <c r="D3" s="40"/>
@@ -7746,13 +7779,13 @@
         <v>33</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D9" s="45" t="s">
         <v>34</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F9" s="45" t="s">
         <v>115</v>
@@ -7773,7 +7806,7 @@
         <v>37</v>
       </c>
       <c r="L9" s="45" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="33" x14ac:dyDescent="0.15">
@@ -7782,21 +7815,21 @@
         <v>1</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D10" s="58" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E10" s="58" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F10" s="47"/>
       <c r="G10" s="58" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H10" s="47"/>
       <c r="I10" s="58" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J10" s="47"/>
       <c r="K10" s="47"/>
@@ -7807,21 +7840,21 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D11" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="F11" s="38"/>
       <c r="G11" s="58" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H11" s="38"/>
       <c r="I11" s="58" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J11" s="38"/>
       <c r="K11" s="38"/>
@@ -7832,21 +7865,21 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D12" s="58" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F12" s="38"/>
       <c r="G12" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H12" s="38"/>
       <c r="I12" s="58" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J12" s="38"/>
       <c r="K12" s="38"/>
@@ -7857,18 +7890,18 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D13" s="58" t="s">
         <v>234</v>
-      </c>
-      <c r="D13" s="58" t="s">
-        <v>235</v>
       </c>
       <c r="E13" s="38"/>
       <c r="F13" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H13" s="38"/>
       <c r="I13" s="58" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J13" s="38"/>
       <c r="K13" s="38"/>
@@ -7879,21 +7912,23 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D14" s="58" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E14" s="47"/>
       <c r="F14" s="38"/>
       <c r="G14" s="58" t="s">
-        <v>243</v>
-      </c>
-      <c r="H14" s="38"/>
+        <v>242</v>
+      </c>
+      <c r="H14" s="1"/>
       <c r="I14" s="58" t="s">
-        <v>267</v>
-      </c>
-      <c r="J14" s="38"/>
+        <v>266</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>287</v>
+      </c>
       <c r="K14" s="38"/>
       <c r="L14" s="38"/>
     </row>
@@ -7902,25 +7937,27 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D15" s="58" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G15" s="58" t="s">
-        <v>244</v>
-      </c>
-      <c r="H15" s="38"/>
+        <v>243</v>
+      </c>
+      <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="J15" s="38"/>
+        <v>292</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>288</v>
+      </c>
       <c r="K15" s="38"/>
       <c r="L15" s="38"/>
     </row>
@@ -7929,21 +7966,21 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D16" s="58" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F16" s="38"/>
       <c r="G16" s="58" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H16" s="38"/>
       <c r="I16" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J16" s="38"/>
       <c r="K16" s="38"/>
@@ -7954,21 +7991,21 @@
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D17" s="58" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F17" s="38"/>
       <c r="G17" s="58" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H17" s="38"/>
       <c r="I17" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J17" s="38"/>
       <c r="K17" s="38"/>
@@ -7979,21 +8016,21 @@
         <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D18" s="58" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F18" s="38"/>
       <c r="G18" s="58" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H18" s="38"/>
       <c r="I18" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J18" s="38"/>
       <c r="K18" s="38"/>
@@ -8004,21 +8041,21 @@
         <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D19" s="58" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F19" s="38"/>
       <c r="G19" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H19" s="38"/>
       <c r="I19" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J19" s="38"/>
       <c r="K19" s="38"/>
@@ -8029,21 +8066,21 @@
         <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D20" s="58" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F20" s="38"/>
       <c r="G20" s="58" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H20" s="38"/>
       <c r="I20" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J20" s="38"/>
       <c r="K20" s="38"/>
@@ -8054,21 +8091,21 @@
         <v>12</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D21" s="58" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F21" s="38"/>
       <c r="G21" s="58" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H21" s="38"/>
       <c r="I21" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J21" s="38"/>
       <c r="K21" s="38"/>
@@ -8079,21 +8116,21 @@
         <v>13</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D22" s="58" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F22" s="38"/>
       <c r="G22" s="58" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H22" s="38"/>
       <c r="I22" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J22" s="38"/>
       <c r="K22" s="38"/>
@@ -8104,21 +8141,21 @@
         <v>14</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D23" s="58" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F23" s="38"/>
       <c r="G23" s="58" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H23" s="38"/>
       <c r="I23" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J23" s="38"/>
       <c r="K23" s="38"/>
@@ -8215,7 +8252,7 @@
   <dimension ref="B1:T42"/>
   <sheetViews>
     <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="N132" sqref="N132"/>
+      <selection activeCell="AC13" sqref="AC13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
